--- a/StaticData/Attribute.xlsx
+++ b/StaticData/Attribute.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\projects\MonMoose\StaticData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\MonMoose\StaticData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5354FC17-CC26-49A3-A230-4432A2CEFB0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="3675" windowWidth="21600" windowHeight="10920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="90" yWindow="3675" windowWidth="21600" windowHeight="10920" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Attribute" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Attribute</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,13 +148,17 @@
   </si>
   <si>
     <t>Hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -172,12 +175,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -192,8 +207,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -473,7 +490,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -606,11 +623,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9248DEB-9334-44B7-A798-CE5C5AB7411A}">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -632,10 +649,10 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -685,6 +702,14 @@
       </c>
       <c r="B9" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/StaticData/Attribute.xlsx
+++ b/StaticData/Attribute.xlsx
@@ -9,11 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="90" yWindow="3675" windowWidth="21600" windowHeight="10920" activeTab="1"/>
+    <workbookView xWindow="90" yWindow="3675" windowWidth="21600" windowHeight="10920"/>
   </bookViews>
   <sheets>
-    <sheet name="Attribute" sheetId="1" r:id="rId1"/>
-    <sheet name="EAttributeType" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Attribute</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IsSignInversed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,22 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Enum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成员名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EAttributeType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>生命值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,34 +103,6 @@
   </si>
   <si>
     <t>攻击速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PhysicalDefence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MagicalDefence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MoveSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Max</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -175,24 +126,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -207,10 +146,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -493,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -532,10 +469,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -546,7 +483,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -572,7 +509,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -580,7 +517,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -588,7 +525,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -596,7 +533,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -604,7 +541,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -612,7 +549,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -620,100 +557,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>